--- a/hello.xlsx
+++ b/hello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tGitHome\hello-git-tortoiseGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F788F0E-5C76-4FD6-8541-8D56B9CB62FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FCE08-06FB-4D2F-890E-4E1F7288F0D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27645" yWindow="1560" windowWidth="16200" windowHeight="11850" xr2:uid="{0561B92B-6480-4092-895A-5C5A8D1B3CBE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8E428E-E91E-4230-B841-C30AEBC0EE36}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -437,6 +441,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tGitHome\hello-git-tortoiseGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FCE08-06FB-4D2F-890E-4E1F7288F0D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F788F0E-5C76-4FD6-8541-8D56B9CB62FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27645" yWindow="1560" windowWidth="16200" windowHeight="11850" xr2:uid="{0561B92B-6480-4092-895A-5C5A8D1B3CBE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8E428E-E91E-4230-B841-C30AEBC0EE36}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,14 +437,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
